--- a/рис/лабы/7Model_Korkorena_lab7.xlsx
+++ b/рис/лабы/7Model_Korkorena_lab7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\homework2\рис\лабы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F0AD9D-58BD-4F10-B81E-0561D5C1F26A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FB0777-6277-440D-BF0E-629040FC55DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8544" xr2:uid="{5A8EC955-3F18-42F6-B659-3E5C945A109D}"/>
   </bookViews>
@@ -558,7 +558,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -686,17 +686,21 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>6.8000000000000005E-3</v>
+        <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <f>SUM(B2:B8)</f>
+        <v>0.99999999999999989</v>
+      </c>
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -707,7 +711,7 @@
       </c>
       <c r="D10">
         <f>20/100+SUM(D2:D8)</f>
-        <v>0.3322</v>
+        <v>0.33179999999999998</v>
       </c>
     </row>
   </sheetData>
